--- a/Mifos Automation Excels/Loan Product/4254-MS-EI-DB-DL-REC-CTRFD-RNI-FEE-FFC-SAR-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Loanproduct.xlsx
+++ b/Mifos Automation Excels/Loan Product/4254-MS-EI-DB-DL-REC-CTRFD-RNI-FEE-FFC-SAR-FFROP-DAILY-FIFR-1-MD-TR-1-ONTIME-PER-Loanproduct.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="73">
   <si>
     <t>productname</t>
   </si>
@@ -228,6 +228,12 @@
   </si>
   <si>
     <t>Penalties, Fees, Interest, Principal order</t>
+  </si>
+  <si>
+    <t>4254-MS-EI-DB-DL-REC-CTRFD-RNI-FEE-FFC-SAR-FFROP-DAILY-FIFR-1-MD-TR-1-ONT-PE-1st</t>
+  </si>
+  <si>
+    <t>425d</t>
   </si>
 </sst>
 </file>
@@ -642,7 +648,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -656,15 +662,15 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5">
-        <v>4254</v>
+      <c r="B2" s="5" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
